--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>97.85</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -865,12 +865,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,171 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -749,180 +757,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>501072</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -500,11 +501,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -532,6 +549,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -625,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -757,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002737-葵花药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -517,11 +518,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>52.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1020,7 +1739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
